--- a/documentation/support_files/Final_Results.xlsx
+++ b/documentation/support_files/Final_Results.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-440" windowWidth="25600" windowHeight="16000" activeTab="5"/>
+    <workbookView xWindow="-80" yWindow="-440" windowWidth="25600" windowHeight="16000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Prediction_results" sheetId="11" r:id="rId1"/>
     <sheet name="Recall" sheetId="12" r:id="rId2"/>
     <sheet name="wordGrowth" sheetId="13" r:id="rId3"/>
-    <sheet name="Pred. vs Time" sheetId="14" r:id="rId4"/>
-    <sheet name="HashTag Time Series" sheetId="15" r:id="rId5"/>
-    <sheet name="regression_coeffs" sheetId="16" r:id="rId6"/>
+    <sheet name="HashTag Time Series" sheetId="15" r:id="rId4"/>
+    <sheet name="regression_coeffs" sheetId="16" r:id="rId5"/>
+    <sheet name="UniVis" sheetId="17" r:id="rId6"/>
+    <sheet name="RM" sheetId="18" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
   <si>
     <t>Election</t>
   </si>
@@ -80,12 +81,6 @@
     <t>Reg. + PSL Vocab</t>
   </si>
   <si>
-    <t>Prediction with Static vocab</t>
-  </si>
-  <si>
-    <t>Predition with Dynamic vocab</t>
-  </si>
-  <si>
     <t>Days to Election</t>
   </si>
   <si>
@@ -177,6 +172,90 @@
   </si>
   <si>
     <t>average</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Enrique Pena Nieto</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>UniVis+Seed</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>UniVis+PSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error </t>
+  </si>
+  <si>
+    <t>Reduction in Error</t>
+  </si>
+  <si>
+    <t>Andres Lopez Obredor</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Hugo Chavez</t>
+  </si>
+  <si>
+    <t>Henrique Capriles</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>RM+Seed</t>
+  </si>
+  <si>
+    <t>RM+PSL</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Rafael Correa</t>
+  </si>
+  <si>
+    <t>Guillermo Lasso</t>
+  </si>
+  <si>
+    <t>Nicholas Maduro</t>
+  </si>
+  <si>
+    <t>Horacio Cartes</t>
+  </si>
+  <si>
+    <t>Efrain Alegre</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Michelle Bachelet</t>
+  </si>
+  <si>
+    <t>Evelyn Matthei</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Juan Orlando Hernandez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiomara castro </t>
+  </si>
+  <si>
+    <t>Honduras</t>
   </si>
 </sst>
 </file>
@@ -250,7 +329,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -294,18 +373,167 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="179">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -327,6 +555,74 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -348,6 +644,74 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -748,11 +1112,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2107259864"/>
-        <c:axId val="2082443880"/>
+        <c:axId val="2054390584"/>
+        <c:axId val="2054387448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107259864"/>
+        <c:axId val="2054390584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -761,7 +1125,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082443880"/>
+        <c:crossAx val="2054387448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -769,7 +1133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082443880"/>
+        <c:axId val="2054387448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -803,7 +1167,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107259864"/>
+        <c:crossAx val="2054390584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1006,11 +1370,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2107294488"/>
-        <c:axId val="2107299960"/>
+        <c:axId val="2054311480"/>
+        <c:axId val="2054305992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107294488"/>
+        <c:axId val="2054311480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,7 +1401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107299960"/>
+        <c:crossAx val="2054305992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1045,7 +1409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107299960"/>
+        <c:axId val="2054305992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,7 +1456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107294488"/>
+        <c:crossAx val="2054311480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1384,11 +1748,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2107341256"/>
-        <c:axId val="2107346840"/>
+        <c:axId val="2054264648"/>
+        <c:axId val="2054259048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2107341256"/>
+        <c:axId val="2054264648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,7 +1784,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107346840"/>
+        <c:crossAx val="2054259048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1428,7 +1792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107346840"/>
+        <c:axId val="2054259048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,219 +1834,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107341256"/>
+        <c:crossAx val="2054264648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pred. vs Time'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Prediction with Static vocab</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Pred. vs Time'!$B$1:$E$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Pred. vs Time'!$B$2:$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.169</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.009</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.036</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.062</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pred. vs Time'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Predition with Dynamic vocab</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Pred. vs Time'!$B$1:$E$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Pred. vs Time'!$B$3:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.169</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.095</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.037</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2107386280"/>
-        <c:axId val="2107389336"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2107386280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107389336"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2107389336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107386280"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1787,41 +1945,6 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2129,7 +2252,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2564,7 +2687,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1">
         <v>30</v>
@@ -2602,7 +2725,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -2640,7 +2763,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -2690,78 +2813,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1">
-        <v>30</v>
-      </c>
-      <c r="C1">
-        <v>15</v>
-      </c>
-      <c r="D1">
-        <v>5</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="C2">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D2">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="E2">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="C3" s="3">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2775,7 +2826,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1">
         <v>24</v>
@@ -2804,7 +2855,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>0.86956522802900005</v>
@@ -2833,7 +2884,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2862,7 +2913,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>0.80032520618000003</v>
@@ -2891,7 +2942,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>0.773297341995</v>
@@ -2920,7 +2971,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2937,7 +2988,7 @@
       <c r="F6">
         <v>0.45466520146799999</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.36763937800000002</v>
       </c>
       <c r="H6">
@@ -2949,7 +3000,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>0.62675629742500005</v>
@@ -2978,7 +3029,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3003,6 +3054,248 @@
       </c>
       <c r="I8">
         <v>0.49912312399999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1">
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>-2E-3</v>
+      </c>
+      <c r="E3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G3">
+        <v>2.81E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>0.59</v>
+      </c>
+      <c r="D4">
+        <v>-0.87</v>
+      </c>
+      <c r="E4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="F5">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>-1.23</v>
+      </c>
+      <c r="E6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.11033999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>-0.58399999999999996</v>
+      </c>
+      <c r="E7">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>-0.44700000000000001</v>
+      </c>
+      <c r="F8">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>-6.0999999999999997E-4</v>
+      </c>
+      <c r="E9">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>0.98</v>
+      </c>
+      <c r="D10">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>0.41</v>
+      </c>
+      <c r="D11">
+        <v>-0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+      <c r="E12">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F12">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>0.78</v>
+      </c>
+      <c r="G14">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>1E-4</v>
+      </c>
+      <c r="D15">
+        <v>-0.98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1">
+        <f>AVERAGE(C2:C15)</f>
+        <v>0.46228333333333338</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16:G16" si="0">AVERAGE(D2:D15)</f>
+        <v>-0.44309100000000007</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11581428571428572</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.1499999999999999E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15620571428571431</v>
       </c>
     </row>
   </sheetData>
@@ -3018,233 +3311,1110 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="7"/>
+    <col min="4" max="4" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
+    <row r="1" spans="1:8">
+      <c r="C1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2">
-        <v>1.3599999999999999E-2</v>
-      </c>
-      <c r="G2">
-        <v>0.04</v>
+      <c r="A2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="8">
+        <v>38.15</v>
+      </c>
+      <c r="D2" s="8">
+        <v>49.26</v>
+      </c>
+      <c r="E2" s="9">
+        <f>ABS(C2-D2)</f>
+        <v>11.11</v>
+      </c>
+      <c r="F2" s="8">
+        <v>46.427999999999997</v>
+      </c>
+      <c r="G2" s="9">
+        <f>ABS(C2-F2)</f>
+        <v>8.2779999999999987</v>
+      </c>
+      <c r="H2" s="9">
+        <f>(E2-G2)/E2*100</f>
+        <v>25.490549054905497</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3">
-        <v>-2E-3</v>
-      </c>
-      <c r="E3">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G3">
-        <v>2.81E-2</v>
+      <c r="A3" s="6"/>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="8">
+        <v>31.64</v>
+      </c>
+      <c r="D3" s="8">
+        <v>25.11</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3" si="0">ABS(C3-D3)</f>
+        <v>6.5300000000000011</v>
+      </c>
+      <c r="F3" s="8">
+        <v>27.645</v>
+      </c>
+      <c r="G3" s="9">
+        <f>ABS(C3-F3)</f>
+        <v>3.995000000000001</v>
+      </c>
+      <c r="H3" s="9">
+        <f>(E3-G3)/E3*100</f>
+        <v>38.820826952526794</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>0.59</v>
-      </c>
-      <c r="D4">
-        <v>-0.87</v>
-      </c>
-      <c r="E4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4">
-        <v>0.20499999999999999</v>
-      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5">
-        <v>3.6700000000000003E-2</v>
-      </c>
-      <c r="F5">
-        <v>-0.15</v>
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="8">
+        <v>55.07</v>
+      </c>
+      <c r="D5" s="8">
+        <v>63.691000000000003</v>
+      </c>
+      <c r="E5" s="9">
+        <f>ABS(C5-D5)</f>
+        <v>8.6210000000000022</v>
+      </c>
+      <c r="F5" s="8">
+        <v>55.24</v>
+      </c>
+      <c r="G5" s="9">
+        <f>ABS(C5-F5)</f>
+        <v>0.17000000000000171</v>
+      </c>
+      <c r="H5" s="9">
+        <f>(E5-G5)/E5*100</f>
+        <v>98.028070989444359</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6">
-        <v>-1.23</v>
-      </c>
-      <c r="E6">
-        <v>1.9E-2</v>
-      </c>
-      <c r="G6">
-        <v>0.11033999999999999</v>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="8">
+        <v>44.31</v>
+      </c>
+      <c r="D6" s="8">
+        <v>36.308</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" ref="E6" si="1">ABS(C6-D6)</f>
+        <v>8.0020000000000024</v>
+      </c>
+      <c r="F6" s="8">
+        <v>44.759</v>
+      </c>
+      <c r="G6" s="9">
+        <f>ABS(C6-F6)</f>
+        <v>0.44899999999999807</v>
+      </c>
+      <c r="H6" s="9">
+        <f>(E6-G6)/E6*100</f>
+        <v>94.388902774306445</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7">
-        <v>-0.58399999999999996</v>
-      </c>
-      <c r="E7">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="G7">
-        <v>0.08</v>
-      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8">
-        <v>-0.44700000000000001</v>
-      </c>
-      <c r="F8">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.54</v>
+        <v>64</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="8">
+        <v>57.17</v>
+      </c>
+      <c r="D8" s="8">
+        <v>32.36</v>
+      </c>
+      <c r="E8" s="9">
+        <f>ABS(C8-D8)</f>
+        <v>24.810000000000002</v>
+      </c>
+      <c r="F8" s="9">
+        <v>32.902000000000001</v>
+      </c>
+      <c r="G8" s="9">
+        <f>ABS(C8-F8)</f>
+        <v>24.268000000000001</v>
+      </c>
+      <c r="H8" s="9">
+        <f>(E8-G8)/E8*100</f>
+        <v>2.1846029826682849</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9">
-        <v>-6.0999999999999997E-4</v>
-      </c>
-      <c r="E9">
-        <v>0.51</v>
+      <c r="B9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="8">
+        <v>22.68</v>
+      </c>
+      <c r="D9" s="8">
+        <v>36.93</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" ref="E9" si="2">ABS(C9-D9)</f>
+        <v>14.25</v>
+      </c>
+      <c r="F9" s="9">
+        <v>37.884</v>
+      </c>
+      <c r="G9" s="9">
+        <f>ABS(C9-F9)</f>
+        <v>15.204000000000001</v>
+      </c>
+      <c r="H9" s="9">
+        <f>(E9-G9)/E9*100</f>
+        <v>-6.6947368421052671</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10">
-        <v>0.98</v>
-      </c>
-      <c r="D10">
-        <v>-0.12</v>
-      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11">
-        <v>0.41</v>
-      </c>
-      <c r="D11">
-        <v>-0.19700000000000001</v>
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="9">
+        <v>50.61</v>
+      </c>
+      <c r="D11" s="9">
+        <v>42.08</v>
+      </c>
+      <c r="E11" s="9">
+        <f>ABS(C11-D11)</f>
+        <v>8.5300000000000011</v>
+      </c>
+      <c r="F11" s="9">
+        <v>44.052999999999997</v>
+      </c>
+      <c r="G11" s="9">
+        <f>ABS(C11-F11)</f>
+        <v>6.5570000000000022</v>
+      </c>
+      <c r="H11" s="9">
+        <f>(E11-G11)/E11*100</f>
+        <v>23.130128956623665</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12">
-        <v>-2.9999999999999997E-4</v>
-      </c>
-      <c r="E12">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="F12">
-        <v>-5.0000000000000001E-4</v>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="9">
+        <v>49.12</v>
+      </c>
+      <c r="D12" s="9">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" ref="E12" si="3">ABS(C12-D12)</f>
+        <v>11.14</v>
+      </c>
+      <c r="F12" s="9">
+        <v>37.14</v>
+      </c>
+      <c r="G12" s="9">
+        <f>ABS(C12-F12)</f>
+        <v>11.979999999999997</v>
+      </c>
+      <c r="H12" s="9">
+        <f>(E12-G12)/E12*100</f>
+        <v>-7.5403949730699846</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14">
-        <v>0.78</v>
-      </c>
-      <c r="G14">
-        <v>0.09</v>
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="9">
+        <v>48.48</v>
+      </c>
+      <c r="D14" s="9">
+        <v>29.8</v>
+      </c>
+      <c r="E14" s="9">
+        <f>ABS(C14-D14)</f>
+        <v>18.679999999999996</v>
+      </c>
+      <c r="F14" s="9">
+        <v>29.12</v>
+      </c>
+      <c r="G14" s="9">
+        <f>ABS(C14-F14)</f>
+        <v>19.359999999999996</v>
+      </c>
+      <c r="H14" s="9">
+        <f>(E14-G14)/E14*100</f>
+        <v>-3.6402569593147742</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15">
-        <v>1E-4</v>
-      </c>
-      <c r="D15">
-        <v>-0.98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1">
-      <c r="A16" s="1" t="s">
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="9">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="D15" s="9">
+        <v>27.21</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" ref="E15" si="4">ABS(C15-D15)</f>
+        <v>11.839999999999996</v>
+      </c>
+      <c r="F15" s="9">
+        <v>26.63</v>
+      </c>
+      <c r="G15" s="9">
+        <f>ABS(C15-F15)</f>
+        <v>12.419999999999998</v>
+      </c>
+      <c r="H15" s="9">
+        <f>(E15-G15)/E15*100</f>
+        <v>-4.898648648648666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="9">
+        <v>46.7</v>
+      </c>
+      <c r="D17" s="9">
+        <v>26.62</v>
+      </c>
+      <c r="E17" s="9">
+        <f>ABS(C17-D17)</f>
+        <v>20.080000000000002</v>
+      </c>
+      <c r="F17" s="9">
+        <v>29.923999999999999</v>
+      </c>
+      <c r="G17" s="9">
+        <f>ABS(C17-F17)</f>
+        <v>16.776000000000003</v>
+      </c>
+      <c r="H17" s="9">
+        <f>(E17-G17)/E17*100</f>
+        <v>16.454183266932262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="9">
+        <v>25.03</v>
+      </c>
+      <c r="D18" s="9">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" ref="E18" si="5">ABS(C18-D18)</f>
+        <v>6.27</v>
+      </c>
+      <c r="F18" s="9">
+        <v>19.52</v>
+      </c>
+      <c r="G18" s="9">
+        <f>ABS(C18-F18)</f>
+        <v>5.5100000000000016</v>
+      </c>
+      <c r="H18" s="9">
+        <f>(E18-G18)/E18*100</f>
+        <v>12.121212121212089</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="9">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D20" s="9">
+        <v>28.94</v>
+      </c>
+      <c r="E20" s="9">
+        <f>ABS(C20-D20)</f>
+        <v>7.8599999999999959</v>
+      </c>
+      <c r="F20" s="9">
+        <v>34.74</v>
+      </c>
+      <c r="G20" s="9">
+        <f>ABS(C20-F20)</f>
+        <v>2.0599999999999952</v>
+      </c>
+      <c r="H20" s="9">
+        <f>(E20-G20)/E20*100</f>
+        <v>73.791348600508954</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="9">
+        <v>28.7</v>
+      </c>
+      <c r="D21" s="9">
+        <v>9.67</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" ref="E21" si="6">ABS(C21-D21)</f>
+        <v>19.03</v>
+      </c>
+      <c r="F21" s="9">
+        <v>14.199</v>
+      </c>
+      <c r="G21" s="9">
+        <f>ABS(C21-F21)</f>
+        <v>14.500999999999999</v>
+      </c>
+      <c r="H21" s="9">
+        <f>(E21-G21)/E21*100</f>
+        <v>23.799264319495542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="10">
+        <v>62.16</v>
+      </c>
+      <c r="D23" s="9">
+        <v>57.656999999999996</v>
+      </c>
+      <c r="E23" s="9">
+        <f>ABS(C23-D23)</f>
+        <v>4.5030000000000001</v>
+      </c>
+      <c r="F23" s="9">
+        <v>59.237000000000002</v>
+      </c>
+      <c r="G23" s="9">
+        <f>ABS(C23-F23)</f>
+        <v>2.9229999999999947</v>
+      </c>
+      <c r="H23" s="9">
+        <f>(E23-G23)/E23*100</f>
+        <v>35.087719298245737</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="10">
+        <v>37.83</v>
+      </c>
+      <c r="D24" s="9">
+        <v>42.341999999999999</v>
+      </c>
+      <c r="E24" s="9">
+        <f>ABS(C24-D24)</f>
+        <v>4.5120000000000005</v>
+      </c>
+      <c r="F24" s="9">
+        <v>40.671999999999997</v>
+      </c>
+      <c r="G24" s="9">
+        <f>ABS(C24-F24)</f>
+        <v>2.8419999999999987</v>
+      </c>
+      <c r="H24" s="9">
+        <f>(E24-G24)/E24*100</f>
+        <v>37.012411347517762</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="H27" s="7">
+        <f>AVERAGE(H2:H24)</f>
+        <v>28.595948952578041</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="C1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="1">
-        <f>AVERAGE(C2:C15)</f>
-        <v>0.46228333333333338</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" ref="D16:H16" si="0">AVERAGE(D2:D15)</f>
-        <v>-0.44309100000000007</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11581428571428572</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>-6.1499999999999999E-2</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.15620571428571431</v>
+      <c r="C2" s="8">
+        <v>38.15</v>
+      </c>
+      <c r="D2" s="8">
+        <v>46.8</v>
+      </c>
+      <c r="E2" s="9">
+        <f>ABS(C2-D2)</f>
+        <v>8.6499999999999986</v>
+      </c>
+      <c r="F2" s="8">
+        <v>39.003999999999998</v>
+      </c>
+      <c r="G2" s="9">
+        <f>ABS(C2-F2)</f>
+        <v>0.8539999999999992</v>
+      </c>
+      <c r="H2" s="9">
+        <f>(E2-G2)/E2*100</f>
+        <v>90.127167630057812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="8">
+        <v>31.64</v>
+      </c>
+      <c r="D3" s="8">
+        <v>24.67</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3" si="0">ABS(C3-D3)</f>
+        <v>6.9699999999999989</v>
+      </c>
+      <c r="F3" s="8">
+        <v>28.643999999999998</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3" si="1">ABS(C3-F3)</f>
+        <v>2.9960000000000022</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3" si="2">(E3-G3)/E3*100</f>
+        <v>57.015781922525065</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="8">
+        <v>55.07</v>
+      </c>
+      <c r="D5" s="8">
+        <v>49.89</v>
+      </c>
+      <c r="E5" s="9">
+        <f>ABS(C5-D5)</f>
+        <v>5.18</v>
+      </c>
+      <c r="F5" s="8">
+        <v>55.89</v>
+      </c>
+      <c r="G5" s="9">
+        <f>ABS(C5-F5)</f>
+        <v>0.82000000000000028</v>
+      </c>
+      <c r="H5" s="9">
+        <f>(E5-G5)/E5*100</f>
+        <v>84.16988416988417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="8">
+        <v>44.31</v>
+      </c>
+      <c r="D6" s="8">
+        <v>33.930999999999997</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" ref="E6" si="3">ABS(C6-D6)</f>
+        <v>10.379000000000005</v>
+      </c>
+      <c r="F6" s="8">
+        <v>43.91</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" ref="G6" si="4">ABS(C6-F6)</f>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" ref="H6" si="5">(E6-G6)/E6*100</f>
+        <v>96.146064168031558</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="8">
+        <v>57.17</v>
+      </c>
+      <c r="D8" s="8">
+        <v>53.33</v>
+      </c>
+      <c r="E8" s="9">
+        <f>ABS(C8-D8)</f>
+        <v>3.8400000000000034</v>
+      </c>
+      <c r="F8" s="9">
+        <v>54.328400000000002</v>
+      </c>
+      <c r="G8" s="9">
+        <f>ABS(C8-F8)</f>
+        <v>2.8415999999999997</v>
+      </c>
+      <c r="H8" s="9">
+        <f>(E8-G8)/E8*100</f>
+        <v>26.000000000000075</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="8">
+        <v>22.68</v>
+      </c>
+      <c r="D9" s="8">
+        <v>12.269</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" ref="E9" si="6">ABS(C9-D9)</f>
+        <v>10.411</v>
+      </c>
+      <c r="F9" s="9">
+        <v>12.746</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" ref="G9" si="7">ABS(C9-F9)</f>
+        <v>9.9339999999999993</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" ref="H9" si="8">(E9-G9)/E9*100</f>
+        <v>4.5816924406877373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="9">
+        <v>50.61</v>
+      </c>
+      <c r="D11" s="9">
+        <v>51.448999999999998</v>
+      </c>
+      <c r="E11" s="9">
+        <f>ABS(C11-D11)</f>
+        <v>0.83899999999999864</v>
+      </c>
+      <c r="F11" s="9">
+        <v>50.581000000000003</v>
+      </c>
+      <c r="G11" s="9">
+        <f>ABS(C11-F11)</f>
+        <v>2.8999999999996362E-2</v>
+      </c>
+      <c r="H11" s="9">
+        <f>(E11-G11)/E11*100</f>
+        <v>96.543504171633316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="9">
+        <v>49.12</v>
+      </c>
+      <c r="D12" s="9">
+        <v>35.957999999999998</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" ref="E12" si="9">ABS(C12-D12)</f>
+        <v>13.161999999999999</v>
+      </c>
+      <c r="F12" s="9">
+        <v>38.11</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" ref="G12" si="10">ABS(C12-F12)</f>
+        <v>11.009999999999998</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" ref="H12" si="11">(E12-G12)/E12*100</f>
+        <v>16.350098769184022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="9">
+        <v>48.48</v>
+      </c>
+      <c r="D14" s="9">
+        <v>35.21</v>
+      </c>
+      <c r="E14" s="9">
+        <f>ABS(C14-D14)</f>
+        <v>13.269999999999996</v>
+      </c>
+      <c r="F14" s="9">
+        <v>40.630000000000003</v>
+      </c>
+      <c r="G14" s="9">
+        <f>ABS(C14-F14)</f>
+        <v>7.8499999999999943</v>
+      </c>
+      <c r="H14" s="9">
+        <f>(E14-G14)/E14*100</f>
+        <v>40.844009042954056</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="9">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="D15" s="9">
+        <v>31.33</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" ref="E15" si="12">ABS(C15-D15)</f>
+        <v>7.7199999999999989</v>
+      </c>
+      <c r="F15" s="9">
+        <v>34.44</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" ref="G15" si="13">ABS(C15-F15)</f>
+        <v>4.6099999999999994</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" ref="H15" si="14">(E15-G15)/E15*100</f>
+        <v>40.284974093264246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="9">
+        <v>46.7</v>
+      </c>
+      <c r="D17" s="9">
+        <v>38.909999999999997</v>
+      </c>
+      <c r="E17" s="9">
+        <f>ABS(C17-D17)</f>
+        <v>7.7900000000000063</v>
+      </c>
+      <c r="F17" s="9">
+        <v>41.795000000000002</v>
+      </c>
+      <c r="G17" s="9">
+        <f>ABS(C17-F17)</f>
+        <v>4.9050000000000011</v>
+      </c>
+      <c r="H17" s="9">
+        <f>(E17-G17)/E17*100</f>
+        <v>37.03465982028245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="9">
+        <v>25.03</v>
+      </c>
+      <c r="D18" s="9">
+        <v>19.204000000000001</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" ref="E18" si="15">ABS(C18-D18)</f>
+        <v>5.8260000000000005</v>
+      </c>
+      <c r="F18" s="9">
+        <v>20.984000000000002</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" ref="G18" si="16">ABS(C18-F18)</f>
+        <v>4.0459999999999994</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" ref="H18" si="17">(E18-G18)/E18*100</f>
+        <v>30.552694816340559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="9">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D20" s="9">
+        <v>25.158000000000001</v>
+      </c>
+      <c r="E20" s="9">
+        <f>ABS(C20-D20)</f>
+        <v>11.641999999999996</v>
+      </c>
+      <c r="F20" s="9">
+        <v>28.297000000000001</v>
+      </c>
+      <c r="G20" s="9">
+        <f>ABS(C20-F20)</f>
+        <v>8.5029999999999966</v>
+      </c>
+      <c r="H20" s="9">
+        <f>(E20-G20)/E20*100</f>
+        <v>26.962721181927506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="9">
+        <v>28.7</v>
+      </c>
+      <c r="D21" s="9">
+        <v>16.529</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" ref="E21" si="18">ABS(C21-D21)</f>
+        <v>12.170999999999999</v>
+      </c>
+      <c r="F21" s="9">
+        <v>24.902000000000001</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" ref="G21" si="19">ABS(C21-F21)</f>
+        <v>3.7979999999999983</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" ref="H21" si="20">(E21-G21)/E21*100</f>
+        <v>68.794675868868637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="9">
+        <v>62.16</v>
+      </c>
+      <c r="D23" s="9">
+        <v>39.121000000000002</v>
+      </c>
+      <c r="E23" s="9">
+        <f>ABS(C23-D23)</f>
+        <v>23.038999999999994</v>
+      </c>
+      <c r="F23" s="9">
+        <v>39.795000000000002</v>
+      </c>
+      <c r="G23" s="9">
+        <f>ABS(C23-F23)</f>
+        <v>22.364999999999995</v>
+      </c>
+      <c r="H23" s="9">
+        <f>(E23-G23)/E23*100</f>
+        <v>2.9254741959286412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="9">
+        <v>37.83</v>
+      </c>
+      <c r="D24" s="9">
+        <v>20.88</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" ref="E24" si="21">ABS(C24-D24)</f>
+        <v>16.95</v>
+      </c>
+      <c r="F24" s="9">
+        <v>21.681999999999999</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" ref="G24" si="22">ABS(C24-F24)</f>
+        <v>16.148</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" ref="H24" si="23">(E24-G24)/E24*100</f>
+        <v>4.7315634218289064</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="H27" s="7">
+        <f>AVERAGE(H2:H24)</f>
+        <v>45.191560357087418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="H28" s="7">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="H29" s="7">
+        <f>AVERAGE(H27:H28)</f>
+        <v>36.89578017854371</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/support_files/Final_Results.xlsx
+++ b/documentation/support_files/Final_Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-440" windowWidth="25600" windowHeight="16000" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Prediction_results" sheetId="11" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="regression_coeffs" sheetId="16" r:id="rId5"/>
     <sheet name="UniVis" sheetId="17" r:id="rId6"/>
     <sheet name="RM" sheetId="18" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
   <si>
     <t>Election</t>
   </si>
@@ -256,6 +257,27 @@
   </si>
   <si>
     <t>Honduras</t>
+  </si>
+  <si>
+    <t>iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UVM </t>
+  </si>
+  <si>
+    <t>UVM+PSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM </t>
+  </si>
+  <si>
+    <t>UVM</t>
+  </si>
+  <si>
+    <t>UVM _ PSL</t>
+  </si>
+  <si>
+    <t>RM</t>
   </si>
 </sst>
 </file>
@@ -329,7 +351,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="179">
+  <cellStyleXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -509,8 +531,124 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -532,8 +670,17 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="179">
+  <cellStyles count="295">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -623,6 +770,64 @@
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -712,6 +917,64 @@
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1112,11 +1375,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2054390584"/>
-        <c:axId val="2054387448"/>
+        <c:axId val="2100265848"/>
+        <c:axId val="2100268968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2054390584"/>
+        <c:axId val="2100265848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,7 +1388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2054387448"/>
+        <c:crossAx val="2100268968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1133,7 +1396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2054387448"/>
+        <c:axId val="2100268968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1167,7 +1430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2054390584"/>
+        <c:crossAx val="2100265848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1370,11 +1633,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2054311480"/>
-        <c:axId val="2054305992"/>
+        <c:axId val="2099547768"/>
+        <c:axId val="2099542280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2054311480"/>
+        <c:axId val="2099547768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1664,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2054305992"/>
+        <c:crossAx val="2099542280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1409,7 +1672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2054305992"/>
+        <c:axId val="2099542280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1456,7 +1719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2054311480"/>
+        <c:crossAx val="2099547768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1748,11 +2011,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2054264648"/>
-        <c:axId val="2054259048"/>
+        <c:axId val="2099500952"/>
+        <c:axId val="2099495368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2054264648"/>
+        <c:axId val="2099500952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,7 +2047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2054259048"/>
+        <c:crossAx val="2099495368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1792,7 +2055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2054259048"/>
+        <c:axId val="2099495368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,7 +2097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2054264648"/>
+        <c:crossAx val="2099500952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3314,7 +3577,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3867,8 +4130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4426,4 +4689,472 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8.1424999999999983</v>
+      </c>
+      <c r="C2">
+        <v>8.1424999999999983</v>
+      </c>
+      <c r="D2">
+        <v>2.875</v>
+      </c>
+      <c r="E2">
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>15.329999999999998</v>
+      </c>
+      <c r="C3">
+        <v>7.8049999999999997</v>
+      </c>
+      <c r="D3">
+        <v>2.8949999999999996</v>
+      </c>
+      <c r="E3">
+        <v>2.4555000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>13.702</v>
+      </c>
+      <c r="C4">
+        <v>7.370000000000001</v>
+      </c>
+      <c r="D4">
+        <v>3.0529999999999973</v>
+      </c>
+      <c r="E4">
+        <v>2.7614999999999981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>8.82</v>
+      </c>
+      <c r="C5">
+        <v>6.1364999999999998</v>
+      </c>
+      <c r="D5">
+        <v>7.8099999999999987</v>
+      </c>
+      <c r="E5">
+        <v>1.9250000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="11">
+        <v>38.15</v>
+      </c>
+      <c r="C12" s="11">
+        <v>33.505000000000003</v>
+      </c>
+      <c r="D12" s="12">
+        <v>25.11</v>
+      </c>
+      <c r="E12" s="11">
+        <v>26.51</v>
+      </c>
+      <c r="F12" s="8">
+        <v>49.26</v>
+      </c>
+      <c r="G12">
+        <f>ABS(B12-C12)</f>
+        <v>4.644999999999996</v>
+      </c>
+      <c r="H12">
+        <f>ABS(B12-D12)</f>
+        <v>13.04</v>
+      </c>
+      <c r="I12">
+        <f>ABS(B12-E12)</f>
+        <v>11.639999999999997</v>
+      </c>
+      <c r="J12">
+        <f>ABS(B12-F12)</f>
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="11">
+        <v>31.64</v>
+      </c>
+      <c r="C13" s="11">
+        <v>43.28</v>
+      </c>
+      <c r="D13" s="11">
+        <v>49.26</v>
+      </c>
+      <c r="E13" s="11">
+        <v>47.404000000000003</v>
+      </c>
+      <c r="F13" s="8">
+        <v>25.11</v>
+      </c>
+      <c r="G13">
+        <f>ABS(B13-C13)</f>
+        <v>11.64</v>
+      </c>
+      <c r="H13">
+        <f>ABS(B13-D13)</f>
+        <v>17.619999999999997</v>
+      </c>
+      <c r="I13">
+        <f>ABS(B13-E13)</f>
+        <v>15.764000000000003</v>
+      </c>
+      <c r="J13">
+        <f>ABS(B13-F13)</f>
+        <v>6.5300000000000011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="G14">
+        <f>AVERAGE(G12:G13)</f>
+        <v>8.1424999999999983</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:J14" si="0">AVERAGE(H12:H13)</f>
+        <v>15.329999999999998</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>13.702</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="11">
+        <v>38.15</v>
+      </c>
+      <c r="C16" s="11">
+        <v>33.505000000000003</v>
+      </c>
+      <c r="D16" s="12">
+        <v>31.89</v>
+      </c>
+      <c r="E16" s="11">
+        <v>32.97</v>
+      </c>
+      <c r="F16" s="8">
+        <v>46.427999999999997</v>
+      </c>
+      <c r="G16">
+        <f>ABS(B16-C16)</f>
+        <v>4.644999999999996</v>
+      </c>
+      <c r="H16">
+        <f>ABS(B16-D16)</f>
+        <v>6.259999999999998</v>
+      </c>
+      <c r="I16">
+        <f>ABS(B16-E16)</f>
+        <v>5.18</v>
+      </c>
+      <c r="J16">
+        <f>ABS(B16-F16)</f>
+        <v>8.2779999999999987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" s="11">
+        <v>31.64</v>
+      </c>
+      <c r="C17" s="11">
+        <v>43.28</v>
+      </c>
+      <c r="D17" s="11">
+        <v>40.99</v>
+      </c>
+      <c r="E17" s="11">
+        <v>41.2</v>
+      </c>
+      <c r="F17" s="8">
+        <v>27.645</v>
+      </c>
+      <c r="G17">
+        <f>ABS(B17-C17)</f>
+        <v>11.64</v>
+      </c>
+      <c r="H17">
+        <f>ABS(B17-D17)</f>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="I17">
+        <f>ABS(B17-E17)</f>
+        <v>9.5600000000000023</v>
+      </c>
+      <c r="J17">
+        <f>ABS(B17-F17)</f>
+        <v>3.995000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="G18">
+        <f>AVERAGE(G16:G17)</f>
+        <v>8.1424999999999983</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18" si="1">AVERAGE(H16:H17)</f>
+        <v>7.8049999999999997</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18" si="2">AVERAGE(I16:I17)</f>
+        <v>7.370000000000001</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18" si="3">AVERAGE(J16:J17)</f>
+        <v>6.1364999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="5">
+        <v>38.15</v>
+      </c>
+      <c r="C23" s="5">
+        <v>36.82</v>
+      </c>
+      <c r="D23" s="5">
+        <v>36.65</v>
+      </c>
+      <c r="E23" s="5">
+        <v>36.404000000000003</v>
+      </c>
+      <c r="F23" s="8">
+        <v>46.8</v>
+      </c>
+      <c r="G23">
+        <f>ABS(B23-C23)</f>
+        <v>1.3299999999999983</v>
+      </c>
+      <c r="H23">
+        <f>ABS(B23-D23)</f>
+        <v>1.5</v>
+      </c>
+      <c r="I23">
+        <f>ABS(B23-E23)</f>
+        <v>1.7459999999999951</v>
+      </c>
+      <c r="J23">
+        <f>ABS(B23-F23)</f>
+        <v>8.6499999999999986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="5">
+        <v>31.64</v>
+      </c>
+      <c r="C24" s="13">
+        <v>27.22</v>
+      </c>
+      <c r="D24" s="5">
+        <v>27.35</v>
+      </c>
+      <c r="E24" s="5">
+        <v>27.28</v>
+      </c>
+      <c r="F24" s="8">
+        <v>24.67</v>
+      </c>
+      <c r="G24">
+        <f>ABS(B24-C24)</f>
+        <v>4.4200000000000017</v>
+      </c>
+      <c r="H24">
+        <f>ABS(B24-D24)</f>
+        <v>4.2899999999999991</v>
+      </c>
+      <c r="I24">
+        <f>ABS(B24-E24)</f>
+        <v>4.3599999999999994</v>
+      </c>
+      <c r="J24">
+        <f>ABS(B24-F24)</f>
+        <v>6.9699999999999989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="G25">
+        <f>AVERAGE(G23:G24)</f>
+        <v>2.875</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25" si="4">AVERAGE(H23:H24)</f>
+        <v>2.8949999999999996</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25" si="5">AVERAGE(I23:I24)</f>
+        <v>3.0529999999999973</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25" si="6">AVERAGE(J23:J24)</f>
+        <v>7.8099999999999987</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="5">
+        <v>38.15</v>
+      </c>
+      <c r="C28" s="5">
+        <v>36.393000000000001</v>
+      </c>
+      <c r="D28" s="5">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="E28" s="5">
+        <v>36.146999999999998</v>
+      </c>
+      <c r="F28" s="8">
+        <v>39.003999999999998</v>
+      </c>
+      <c r="G28">
+        <f>ABS(B28-C28)</f>
+        <v>1.7569999999999979</v>
+      </c>
+      <c r="H28">
+        <f>ABS(B28-D28)</f>
+        <v>2.769999999999996</v>
+      </c>
+      <c r="I28">
+        <f>ABS(B28-E28)</f>
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="J28">
+        <f>ABS(B28-F28)</f>
+        <v>0.8539999999999992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="5">
+        <v>31.64</v>
+      </c>
+      <c r="C29" s="13">
+        <v>28.609000000000002</v>
+      </c>
+      <c r="D29" s="5">
+        <v>28.887</v>
+      </c>
+      <c r="E29" s="5">
+        <v>28.731999999999999</v>
+      </c>
+      <c r="F29" s="8">
+        <v>28.643999999999998</v>
+      </c>
+      <c r="G29">
+        <f>ABS(B29-C29)</f>
+        <v>3.0309999999999988</v>
+      </c>
+      <c r="H29">
+        <f>ABS(B29-D29)</f>
+        <v>2.7530000000000001</v>
+      </c>
+      <c r="I29">
+        <f>ABS(B29-E29)</f>
+        <v>2.9080000000000013</v>
+      </c>
+      <c r="J29">
+        <f>ABS(B29-F29)</f>
+        <v>2.9960000000000022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="G30">
+        <f>AVERAGE(G28:G29)</f>
+        <v>2.3939999999999984</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30" si="7">AVERAGE(H28:H29)</f>
+        <v>2.7614999999999981</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ref="I30" si="8">AVERAGE(I28:I29)</f>
+        <v>2.4555000000000007</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30" si="9">AVERAGE(J28:J29)</f>
+        <v>1.9250000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>